--- a/media/upload/modelos/modelo_pedidos.xlsx
+++ b/media/upload/modelos/modelo_pedidos.xlsx
@@ -21,10 +21,11 @@
     <sheet name="Plan9" sheetId="11" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PROPOSTA!$A$1:$C$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">PROPOSTA!$A$1:$C$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">PROPOSTA!$A$1:$C$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -33,7 +34,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="1612">
   <si>
-    <t>Itens - Solicitação N°: XXX/2017</t>
+    <t>Itens da Solicitação</t>
   </si>
   <si>
     <t>ESPECIFICAÇÃO DO PRODUTO</t>
@@ -7811,7 +7812,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/media/upload/modelos/modelo_pedidos.xlsx
+++ b/media/upload/modelos/modelo_pedidos.xlsx
@@ -21,13 +21,14 @@
     <sheet name="Plan9" sheetId="11" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PROPOSTA!$A$1:$E$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">PROPOSTA!$A$1:$E$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$E$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$E$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">PROPOSTA!$A$1:$E$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$E$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$D$227</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">PROPOSTA!$A$1:$E$227</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -7791,16 +7792,16 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7165991902834"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3481781376518"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="48.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="29.5425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="32.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="9.1417004048583"/>
   </cols>
   <sheetData>

--- a/media/upload/modelos/modelo_pedidos.xlsx
+++ b/media/upload/modelos/modelo_pedidos.xlsx
@@ -20,10 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">ESTE DOCUMENTO NÃO DEVE TER SUAS COLUNAS ALTERADAS, APENAS PREENCHIDAS NOS CAMPOS: ITEM; ESPECIFICAÇÃO DO PRODUTO, UNIDADE E QUANTIDADE. QUALQUER ALTERAÇÃO INVIABILIZA SEU USO.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM</t>
   </si>
   <si>
     <t xml:space="preserve">ESPECIFICAÇÃO DO PRODUTO</t>
@@ -79,6 +82,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,18 +249,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.9948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="65.1989795918367"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -269,8 +274,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -280,11 +286,14 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0"/>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/media/upload/modelos/modelo_pedidos.xlsx
+++ b/media/upload/modelos/modelo_pedidos.xlsx
@@ -252,16 +252,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="65.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.9693877551021"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
